--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelam\Documents\CompetitionTask\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5D75B-5D7B-42D0-9A3A-76923987954A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41AE3D0-6B14-4713-8A0D-EF12B6763A51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="975" windowWidth="12240" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="510" windowWidth="20730" windowHeight="10530" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -155,9 +155,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -210,10 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +675,7 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="5" customWidth="1"/>
     <col min="10" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -706,10 +705,10 @@
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -757,7 +756,7 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>43703</v>
       </c>
       <c r="I2" s="7">
@@ -766,10 +765,10 @@
       <c r="J2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M2" t="s">
@@ -795,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01169EE-1443-41DA-B440-C275358CC666}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
